--- a/medicine/Sexualité et sexologie/Daphné_Leblond/Daphné_Leblond.xlsx
+++ b/medicine/Sexualité et sexologie/Daphné_Leblond/Daphné_Leblond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_Leblond</t>
+          <t>Daphné_Leblond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daphné Leblond est une réalisatrice de documentaire française[1]. Son premier documentaire, Mon nom est clitoris, sorti en novembre 2019, s'intéresse à la sexualité féminine vue par les femmes elles-mêmes[2]. Elle est la fille du mécanicien des solides Jean-Baptiste Leblond. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daphné Leblond est une réalisatrice de documentaire française. Son premier documentaire, Mon nom est clitoris, sorti en novembre 2019, s'intéresse à la sexualité féminine vue par les femmes elles-mêmes. Elle est la fille du mécanicien des solides Jean-Baptiste Leblond. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_Leblond</t>
+          <t>Daphné_Leblond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après son cursus à l'École normale supérieure (promotion 2010)[3] et un master II Recherche en Cinéma à la Sorbonne-Nouvelle (Paris III), elle a complété sa formation à l’INSAS dans la section Montage/Scripte. Aujourd’hui, elle monte et réalise des documentaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après son cursus à l'École normale supérieure (promotion 2010) et un master II Recherche en Cinéma à la Sorbonne-Nouvelle (Paris III), elle a complété sa formation à l’INSAS dans la section Montage/Scripte. Aujourd’hui, elle monte et réalise des documentaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_Leblond</t>
+          <t>Daphné_Leblond</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Mon nom est Clitoris</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daphné Leblond s'est fait connaître grâce au documentaire réalisé avec Lisa Billuart-Monet intitulé Mon nom est Clitoris[4] sorti en novembre 2019[5]. Il s'agit de leur premier film[6]. Ce documentaire est un dialogue libre entre jeunes femmes autour de la sexualité féminine[2],[7]. Les deux femmes lancent le projet du documentaire en 2015 à la suite d'une discussion sur les tabous dans la sexualité et sur les événements qui leur ont « vraiment porté préjudice » dans leur sexualité[8]. Elles s’intéressent alors aux témoignages d'autres femmes concernant leur rapport à leur sexualité, aux injonctions sociétales en termes de pratiques sexuelles et aux différents tabous liés à cette thématique[9] et déclarent : « Nous avons voulu faire le film qu'on aurait voulu voir adolescentes »[8] et que leur volonté est de « changer le monde et de faire valoir le droit des femmes à une éducation sexuelle informée, délivrée des contraintes et des tabous »[10].
-Selon les réalisatrices, « l'effacement du clitoris est le symbole de la méconnaissance et de la censure de la sexualité des femmes cisgenres »[1] et il est abordé comme un continent inconnu[9],[11]. Pour leur documentaire, elles interviewent de nombreuses femmes dans des lieux « sécurisants » pour leur permettre de se sentir à l'aise et de rendre leur parole plus libre et fluide[2],[8]. 
-De par sa visée pédagogique, le film est diffusé et distribué avec un dossier pédagogique dans une centaine de Planning familial en Belgique[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daphné Leblond s'est fait connaître grâce au documentaire réalisé avec Lisa Billuart-Monet intitulé Mon nom est Clitoris sorti en novembre 2019. Il s'agit de leur premier film. Ce documentaire est un dialogue libre entre jeunes femmes autour de la sexualité féminine,. Les deux femmes lancent le projet du documentaire en 2015 à la suite d'une discussion sur les tabous dans la sexualité et sur les événements qui leur ont « vraiment porté préjudice » dans leur sexualité. Elles s’intéressent alors aux témoignages d'autres femmes concernant leur rapport à leur sexualité, aux injonctions sociétales en termes de pratiques sexuelles et aux différents tabous liés à cette thématique et déclarent : « Nous avons voulu faire le film qu'on aurait voulu voir adolescentes » et que leur volonté est de « changer le monde et de faire valoir le droit des femmes à une éducation sexuelle informée, délivrée des contraintes et des tabous ».
+Selon les réalisatrices, « l'effacement du clitoris est le symbole de la méconnaissance et de la censure de la sexualité des femmes cisgenres » et il est abordé comme un continent inconnu,. Pour leur documentaire, elles interviewent de nombreuses femmes dans des lieux « sécurisants » pour leur permettre de se sentir à l'aise et de rendre leur parole plus libre et fluide,. 
+De par sa visée pédagogique, le film est diffusé et distribué avec un dossier pédagogique dans une centaine de Planning familial en Belgique.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_Leblond</t>
+          <t>Daphné_Leblond</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2020 : Mon nom est clitoris</t>
         </is>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_Leblond</t>
+          <t>Daphné_Leblond</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,15 +623,86 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Daphné Leblond est plusieurs fois nommée pour Mon nom est Clitoris[12].
-Récompenses
-2020 : Magritte du meilleur documentaire
-2020 : Prix FranceTV « Des images et des elles » 2020 au Festival International de Films de Femmes de Créteil[13]
-Nominations
-2020 : Prix « Soulever des montagnes » au Festival Imagésanté de Liège[14]
-2019 : Sélection Voir autrement le monde au Festival International Jean Rouch[15]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daphné Leblond est plusieurs fois nommée pour Mon nom est Clitoris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daphné_Leblond</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphn%C3%A9_Leblond</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020 : Magritte du meilleur documentaire
+2020 : Prix FranceTV « Des images et des elles » 2020 au Festival International de Films de Femmes de Créteil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daphné_Leblond</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphn%C3%A9_Leblond</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020 : Prix « Soulever des montagnes » au Festival Imagésanté de Liège
+2019 : Sélection Voir autrement le monde au Festival International Jean Rouch</t>
         </is>
       </c>
     </row>
